--- a/Analytics/E0/MultiBookings_e0.xlsx
+++ b/Analytics/E0/MultiBookings_e0.xlsx
@@ -82,73 +82,73 @@
     <t>20</t>
   </si>
   <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>Man United</t>
+  </si>
+  <si>
+    <t>Newcastle</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>Leicester</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>Nottm Forest</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Man City</t>
+  </si>
+  <si>
+    <t>Ipswich</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Wolves</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>West Ham</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Brentford</t>
+  </si>
+  <si>
+    <t>Fulham</t>
+  </si>
+  <si>
     <t>Tottenham</t>
   </si>
   <si>
-    <t>Wolves</t>
-  </si>
-  <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
-    <t>Chelsea</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>Newcastle</t>
-  </si>
-  <si>
-    <t>Aston Villa</t>
-  </si>
-  <si>
-    <t>Brighton</t>
-  </si>
-  <si>
-    <t>Man City</t>
-  </si>
-  <si>
-    <t>Man United</t>
-  </si>
-  <si>
-    <t>Burnley</t>
-  </si>
-  <si>
-    <t>Crystal Palace</t>
-  </si>
-  <si>
-    <t>Arsenal</t>
-  </si>
-  <si>
-    <t>Luton</t>
-  </si>
-  <si>
-    <t>Sheffield United</t>
-  </si>
-  <si>
-    <t>Nottm Forest</t>
-  </si>
-  <si>
-    <t>Brentford</t>
-  </si>
-  <si>
-    <t>West Ham</t>
-  </si>
-  <si>
     <t>Everton</t>
   </si>
   <si>
-    <t>Fulham</t>
-  </si>
-  <si>
     <t>AwayTeam</t>
   </si>
   <si>
     <t>SUM("TMultiBookings")</t>
   </si>
   <si>
-    <t>SUM("TMultiBookings") / 38</t>
+    <t>SUM("TMultiBookings") / 10</t>
   </si>
 </sst>
 </file>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>13750.0</v>
+        <v>8000.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +227,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>13300.0</v>
+        <v>5600.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>10600.0</v>
+        <v>5450.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>10550.0</v>
+        <v>5250.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>9850.0</v>
+        <v>4100.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>9800.0</v>
+        <v>3400.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>9450.0</v>
+        <v>3200.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>9200.0</v>
+        <v>3000.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>8450.0</v>
+        <v>2700.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>8000.0</v>
+        <v>2600.0</v>
       </c>
     </row>
     <row r="12">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>8000.0</v>
+        <v>2400.0</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>7800.0</v>
+        <v>2300.0</v>
       </c>
     </row>
     <row r="14">
@@ -348,7 +348,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>7400.0</v>
+        <v>2300.0</v>
       </c>
     </row>
     <row r="15">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>7350.0</v>
+        <v>2300.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>7300.0</v>
+        <v>2000.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>6700.0</v>
+        <v>2000.0</v>
       </c>
     </row>
     <row r="18">
@@ -392,7 +392,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>6400.0</v>
+        <v>2000.0</v>
       </c>
     </row>
     <row r="19">
@@ -403,7 +403,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>5900.0</v>
+        <v>1650.0</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +414,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>5300.0</v>
+        <v>1550.0</v>
       </c>
     </row>
     <row r="21">
@@ -425,7 +425,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>3600.0</v>
+        <v>550.0</v>
       </c>
     </row>
   </sheetData>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C2" t="n">
-        <v>13200.0</v>
+        <v>6000.0</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="n">
-        <v>12150.0</v>
+        <v>5500.0</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C4" t="n">
-        <v>11800.0</v>
+        <v>4900.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>10350.0</v>
+        <v>4800.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
-        <v>9700.0</v>
+        <v>4400.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
-        <v>9400.0</v>
+        <v>3900.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C8" t="n">
-        <v>9200.0</v>
+        <v>3800.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
-        <v>9000.0</v>
+        <v>3450.0</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
-        <v>9000.0</v>
+        <v>3200.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>8700.0</v>
+        <v>3150.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="n">
-        <v>8500.0</v>
+        <v>2750.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>7700.0</v>
+        <v>2600.0</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>7650.0</v>
+        <v>2400.0</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +601,7 @@
         <v>30</v>
       </c>
       <c r="C15" t="n">
-        <v>7300.0</v>
+        <v>2400.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C16" t="n">
-        <v>6700.0</v>
+        <v>1950.0</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C17" t="n">
-        <v>6550.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" t="n">
-        <v>6200.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C19" t="n">
-        <v>5900.0</v>
+        <v>1350.0</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C20" t="n">
-        <v>5000.0</v>
+        <v>1300.0</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>4700.0</v>
+        <v>1200.0</v>
       </c>
     </row>
   </sheetData>
@@ -700,13 +700,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>22700.0</v>
+        <v>11450.0</v>
       </c>
       <c r="D2" t="n">
-        <v>597.3684210526316</v>
+        <v>1145.0</v>
       </c>
     </row>
     <row r="3">
@@ -714,13 +714,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>22400.0</v>
+        <v>8650.0</v>
       </c>
       <c r="D3" t="n">
-        <v>589.4736842105264</v>
+        <v>865.0</v>
       </c>
     </row>
     <row r="4">
@@ -731,10 +731,10 @@
         <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>22350.0</v>
+        <v>8400.0</v>
       </c>
       <c r="D4" t="n">
-        <v>588.1578947368421</v>
+        <v>840.0</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>22250.0</v>
+        <v>8350.0</v>
       </c>
       <c r="D5" t="n">
-        <v>585.5263157894736</v>
+        <v>835.0</v>
       </c>
     </row>
     <row r="6">
@@ -759,10 +759,10 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>19550.0</v>
+        <v>8000.0</v>
       </c>
       <c r="D6" t="n">
-        <v>514.4736842105264</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="7">
@@ -770,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>19000.0</v>
+        <v>7900.0</v>
       </c>
       <c r="D7" t="n">
-        <v>500.0</v>
+        <v>790.0</v>
       </c>
     </row>
     <row r="8">
@@ -784,13 +784,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C8" t="n">
-        <v>18850.0</v>
+        <v>7800.0</v>
       </c>
       <c r="D8" t="n">
-        <v>496.05263157894734</v>
+        <v>780.0</v>
       </c>
     </row>
     <row r="9">
@@ -798,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C9" t="n">
-        <v>18350.0</v>
+        <v>7550.0</v>
       </c>
       <c r="D9" t="n">
-        <v>482.89473684210526</v>
+        <v>755.0</v>
       </c>
     </row>
     <row r="10">
@@ -812,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C10" t="n">
-        <v>18300.0</v>
+        <v>7500.0</v>
       </c>
       <c r="D10" t="n">
-        <v>481.57894736842104</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="11">
@@ -826,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C11" t="n">
-        <v>17100.0</v>
+        <v>7100.0</v>
       </c>
       <c r="D11" t="n">
-        <v>450.0</v>
+        <v>710.0</v>
       </c>
     </row>
     <row r="12">
@@ -840,13 +840,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C12" t="n">
-        <v>17000.0</v>
+        <v>6100.0</v>
       </c>
       <c r="D12" t="n">
-        <v>447.36842105263156</v>
+        <v>610.0</v>
       </c>
     </row>
     <row r="13">
@@ -854,13 +854,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C13" t="n">
-        <v>16300.0</v>
+        <v>5150.0</v>
       </c>
       <c r="D13" t="n">
-        <v>428.94736842105266</v>
+        <v>515.0</v>
       </c>
     </row>
     <row r="14">
@@ -871,10 +871,10 @@
         <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>15750.0</v>
+        <v>5100.0</v>
       </c>
       <c r="D14" t="n">
-        <v>414.4736842105263</v>
+        <v>510.0</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>15100.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D15" t="n">
-        <v>397.36842105263156</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="16">
@@ -899,10 +899,10 @@
         <v>33</v>
       </c>
       <c r="C16" t="n">
-        <v>13700.0</v>
+        <v>4900.0</v>
       </c>
       <c r="D16" t="n">
-        <v>360.5263157894737</v>
+        <v>490.0</v>
       </c>
     </row>
     <row r="17">
@@ -910,13 +910,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C17" t="n">
-        <v>12600.0</v>
+        <v>4200.0</v>
       </c>
       <c r="D17" t="n">
-        <v>331.57894736842104</v>
+        <v>420.0</v>
       </c>
     </row>
     <row r="18">
@@ -924,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>12350.0</v>
+        <v>3350.0</v>
       </c>
       <c r="D18" t="n">
-        <v>325.0</v>
+        <v>335.0</v>
       </c>
     </row>
     <row r="19">
@@ -938,13 +938,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C19" t="n">
-        <v>12100.0</v>
+        <v>3300.0</v>
       </c>
       <c r="D19" t="n">
-        <v>318.42105263157896</v>
+        <v>330.0</v>
       </c>
     </row>
     <row r="20">
@@ -952,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" t="n">
-        <v>11850.0</v>
+        <v>3150.0</v>
       </c>
       <c r="D20" t="n">
-        <v>311.8421052631579</v>
+        <v>315.0</v>
       </c>
     </row>
     <row r="21">
@@ -969,10 +969,10 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>9800.0</v>
+        <v>1750.0</v>
       </c>
       <c r="D21" t="n">
-        <v>257.89473684210526</v>
+        <v>175.0</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/E0/MultiBookings_e0.xlsx
+++ b/Analytics/E0/MultiBookings_e0.xlsx
@@ -85,58 +85,58 @@
     <t>Aston Villa</t>
   </si>
   <si>
+    <t>Newcastle</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
     <t>Man United</t>
   </si>
   <si>
-    <t>Newcastle</t>
-  </si>
-  <si>
-    <t>Southampton</t>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>Leicester</t>
   </si>
   <si>
     <t>Chelsea</t>
   </si>
   <si>
-    <t>Leicester</t>
-  </si>
-  <si>
-    <t>Brighton</t>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>West Ham</t>
+  </si>
+  <si>
+    <t>Wolves</t>
+  </si>
+  <si>
+    <t>Man City</t>
+  </si>
+  <si>
+    <t>Ipswich</t>
   </si>
   <si>
     <t>Nottm Forest</t>
   </si>
   <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
     <t>Crystal Palace</t>
   </si>
   <si>
-    <t>Man City</t>
-  </si>
-  <si>
-    <t>Ipswich</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>Wolves</t>
-  </si>
-  <si>
-    <t>Arsenal</t>
-  </si>
-  <si>
-    <t>West Ham</t>
-  </si>
-  <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
     <t>Brentford</t>
   </si>
   <si>
+    <t>Tottenham</t>
+  </si>
+  <si>
     <t>Fulham</t>
-  </si>
-  <si>
-    <t>Tottenham</t>
   </si>
   <si>
     <t>Everton</t>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>8000.0</v>
+        <v>8300.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +227,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>5600.0</v>
+        <v>7550.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>5450.0</v>
+        <v>7100.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>5250.0</v>
+        <v>6100.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>4100.0</v>
+        <v>5600.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>3400.0</v>
+        <v>5100.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>3200.0</v>
+        <v>4900.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>3000.0</v>
+        <v>4450.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>2700.0</v>
+        <v>3800.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>2600.0</v>
+        <v>3700.0</v>
       </c>
     </row>
     <row r="12">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>2400.0</v>
+        <v>3600.0</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>2300.0</v>
+        <v>3400.0</v>
       </c>
     </row>
     <row r="14">
@@ -348,7 +348,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>2300.0</v>
+        <v>3400.0</v>
       </c>
     </row>
     <row r="15">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>2300.0</v>
+        <v>3100.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>2000.0</v>
+        <v>3000.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>2000.0</v>
+        <v>2700.0</v>
       </c>
     </row>
     <row r="18">
@@ -392,7 +392,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>2000.0</v>
+        <v>2700.0</v>
       </c>
     </row>
     <row r="19">
@@ -403,7 +403,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>1650.0</v>
+        <v>2650.0</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +414,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>1550.0</v>
+        <v>2150.0</v>
       </c>
     </row>
     <row r="21">
@@ -425,7 +425,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>550.0</v>
+        <v>650.0</v>
       </c>
     </row>
   </sheetData>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" t="n">
-        <v>6000.0</v>
+        <v>7300.0</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" t="n">
-        <v>5500.0</v>
+        <v>7000.0</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" t="n">
-        <v>4900.0</v>
+        <v>6500.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
-        <v>4800.0</v>
+        <v>5950.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
-        <v>4400.0</v>
+        <v>5900.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>3900.0</v>
+        <v>5300.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
-        <v>3800.0</v>
+        <v>5000.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C9" t="n">
-        <v>3450.0</v>
+        <v>5000.0</v>
       </c>
     </row>
     <row r="10">
@@ -546,7 +546,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="n">
-        <v>3200.0</v>
+        <v>4450.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C11" t="n">
-        <v>3150.0</v>
+        <v>3800.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" t="n">
-        <v>2750.0</v>
+        <v>3650.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C13" t="n">
-        <v>2600.0</v>
+        <v>3500.0</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C14" t="n">
-        <v>2400.0</v>
+        <v>3450.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" t="n">
-        <v>2400.0</v>
+        <v>3300.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C16" t="n">
-        <v>1950.0</v>
+        <v>3150.0</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C17" t="n">
-        <v>1800.0</v>
+        <v>3050.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C18" t="n">
-        <v>1500.0</v>
+        <v>2800.0</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C19" t="n">
-        <v>1350.0</v>
+        <v>1650.0</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         <v>38</v>
       </c>
       <c r="C20" t="n">
-        <v>1300.0</v>
+        <v>1600.0</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>1200.0</v>
+        <v>1600.0</v>
       </c>
     </row>
   </sheetData>
@@ -703,10 +703,10 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>11450.0</v>
+        <v>11950.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1145.0</v>
+        <v>1195.0</v>
       </c>
     </row>
     <row r="3">
@@ -717,10 +717,10 @@
         <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>8650.0</v>
+        <v>11550.0</v>
       </c>
       <c r="D3" t="n">
-        <v>865.0</v>
+        <v>1155.0</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
-        <v>8400.0</v>
+        <v>11050.0</v>
       </c>
       <c r="D4" t="n">
-        <v>840.0</v>
+        <v>1105.0</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
-        <v>8350.0</v>
+        <v>10850.0</v>
       </c>
       <c r="D5" t="n">
-        <v>835.0</v>
+        <v>1085.0</v>
       </c>
     </row>
     <row r="6">
@@ -756,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
-        <v>8000.0</v>
+        <v>10400.0</v>
       </c>
       <c r="D6" t="n">
-        <v>800.0</v>
+        <v>1040.0</v>
       </c>
     </row>
     <row r="7">
@@ -770,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" t="n">
-        <v>7900.0</v>
+        <v>10200.0</v>
       </c>
       <c r="D7" t="n">
-        <v>790.0</v>
+        <v>1020.0</v>
       </c>
     </row>
     <row r="8">
@@ -784,13 +784,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C8" t="n">
-        <v>7800.0</v>
+        <v>10000.0</v>
       </c>
       <c r="D8" t="n">
-        <v>780.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="9">
@@ -798,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" t="n">
-        <v>7550.0</v>
+        <v>9950.0</v>
       </c>
       <c r="D9" t="n">
-        <v>755.0</v>
+        <v>995.0</v>
       </c>
     </row>
     <row r="10">
@@ -812,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C10" t="n">
-        <v>7500.0</v>
+        <v>9450.0</v>
       </c>
       <c r="D10" t="n">
-        <v>750.0</v>
+        <v>945.0</v>
       </c>
     </row>
     <row r="11">
@@ -829,10 +829,10 @@
         <v>34</v>
       </c>
       <c r="C11" t="n">
-        <v>7100.0</v>
+        <v>9300.0</v>
       </c>
       <c r="D11" t="n">
-        <v>710.0</v>
+        <v>930.0</v>
       </c>
     </row>
     <row r="12">
@@ -840,13 +840,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v>6100.0</v>
+        <v>9250.0</v>
       </c>
       <c r="D12" t="n">
-        <v>610.0</v>
+        <v>925.0</v>
       </c>
     </row>
     <row r="13">
@@ -854,13 +854,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
-        <v>5150.0</v>
+        <v>8650.0</v>
       </c>
       <c r="D13" t="n">
-        <v>515.0</v>
+        <v>865.0</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C14" t="n">
-        <v>5100.0</v>
+        <v>8100.0</v>
       </c>
       <c r="D14" t="n">
-        <v>510.0</v>
+        <v>810.0</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" t="n">
-        <v>5000.0</v>
+        <v>6900.0</v>
       </c>
       <c r="D15" t="n">
-        <v>500.0</v>
+        <v>690.0</v>
       </c>
     </row>
     <row r="16">
@@ -896,13 +896,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C16" t="n">
-        <v>4900.0</v>
+        <v>6500.0</v>
       </c>
       <c r="D16" t="n">
-        <v>490.0</v>
+        <v>650.0</v>
       </c>
     </row>
     <row r="17">
@@ -910,13 +910,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" t="n">
-        <v>4200.0</v>
+        <v>6200.0</v>
       </c>
       <c r="D17" t="n">
-        <v>420.0</v>
+        <v>620.0</v>
       </c>
     </row>
     <row r="18">
@@ -924,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C18" t="n">
-        <v>3350.0</v>
+        <v>5600.0</v>
       </c>
       <c r="D18" t="n">
-        <v>335.0</v>
+        <v>560.0</v>
       </c>
     </row>
     <row r="19">
@@ -938,13 +938,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C19" t="n">
-        <v>3300.0</v>
+        <v>5450.0</v>
       </c>
       <c r="D19" t="n">
-        <v>330.0</v>
+        <v>545.0</v>
       </c>
     </row>
     <row r="20">
@@ -952,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" t="n">
-        <v>3150.0</v>
+        <v>4300.0</v>
       </c>
       <c r="D20" t="n">
-        <v>315.0</v>
+        <v>430.0</v>
       </c>
     </row>
     <row r="21">
@@ -969,10 +969,10 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>1750.0</v>
+        <v>2250.0</v>
       </c>
       <c r="D21" t="n">
-        <v>175.0</v>
+        <v>225.0</v>
       </c>
     </row>
   </sheetData>
